--- a/documentos/Grafico.xlsx
+++ b/documentos/Grafico.xlsx
@@ -37,12 +37,6 @@
     <t>P. Backlog</t>
   </si>
   <si>
-    <t>Estória de usuário</t>
-  </si>
-  <si>
-    <t>Criar Protótipo de Interface</t>
-  </si>
-  <si>
     <t>Real(h)</t>
   </si>
   <si>
@@ -58,7 +52,13 @@
     <t>Sprint 3</t>
   </si>
   <si>
-    <t>Criar Tela de login</t>
+    <t>Criar Menu Inicial</t>
+  </si>
+  <si>
+    <t>Criar Tela de Login</t>
+  </si>
+  <si>
+    <t>Estória de Usuário</t>
   </si>
 </sst>
 </file>
@@ -199,12 +199,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -322,25 +322,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="98253440"/>
-        <c:axId val="61469056"/>
+        <c:axId val="98948992"/>
+        <c:axId val="98950528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98253440"/>
+        <c:axId val="98948992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61469056"/>
+        <c:crossAx val="98950528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61469056"/>
+        <c:axId val="98950528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -349,7 +349,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98253440"/>
+        <c:crossAx val="98948992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -362,7 +362,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -691,7 +691,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -722,8 +722,8 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
-        <v>11</v>
+      <c r="A2" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -734,11 +734,13 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="9"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -750,15 +752,15 @@
         <v>2</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
-        <v>12</v>
+      <c r="A4" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -772,43 +774,43 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
       <c r="E5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="10" t="s">
-        <v>13</v>
+      <c r="A6" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1">
         <v>2</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="13"/>
-      <c r="B7" s="11" t="s">
-        <v>9</v>
+      <c r="A7" s="12"/>
+      <c r="B7" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="C7" s="5">
         <f>SUM(C2:C6)</f>
@@ -828,9 +830,9 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="13"/>
-      <c r="B8" s="12" t="s">
-        <v>10</v>
+      <c r="A8" s="12"/>
+      <c r="B8" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="C8" s="4">
         <f>SUM(C2:C6)</f>
